--- a/data/trans_dic/IP18A04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,75; 24,99</t>
+          <t>10,68; 25,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 22,84</t>
+          <t>9,06; 23,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 13,9</t>
+          <t>3,1; 14,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 29,69</t>
+          <t>14,6; 31,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 26,45</t>
+          <t>11,72; 25,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 10,6</t>
+          <t>1,1; 12,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,63; 24,89</t>
+          <t>14,05; 24,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,0; 22,16</t>
+          <t>12,58; 21,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 10,6</t>
+          <t>3,24; 10,69</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,64</t>
+          <t>7,95; 12,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 14,78</t>
+          <t>9,65; 14,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 13,27</t>
+          <t>8,44; 13,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,94</t>
+          <t>4,95; 8,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 14,06</t>
+          <t>9,31; 14,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 11,79</t>
+          <t>7,49; 12,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,27</t>
+          <t>7,04; 10,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 13,58</t>
+          <t>9,99; 13,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 11,84</t>
+          <t>8,61; 12,11</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,7</t>
+          <t>4,98; 12,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,2</t>
+          <t>8,08; 16,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 13,89</t>
+          <t>6,39; 13,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 15,32</t>
+          <t>6,71; 14,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 18,47</t>
+          <t>9,35; 17,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 15,92</t>
+          <t>7,28; 15,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,68</t>
+          <t>6,68; 11,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 15,59</t>
+          <t>9,62; 15,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 13,4</t>
+          <t>7,78; 13,45</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,6</t>
+          <t>8,88; 13,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,5; 14,58</t>
+          <t>10,32; 14,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,32</t>
+          <t>8,49; 12,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,4</t>
+          <t>7,67; 11,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,82; 14,97</t>
+          <t>10,65; 15,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,65</t>
+          <t>7,96; 11,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,39</t>
+          <t>8,68; 11,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 14,18</t>
+          <t>11,05; 14,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,27</t>
+          <t>8,59; 11,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A04-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,12%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>14,24; 30,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>11,87; 26,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 12,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,42; 24,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,66; 22,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,11; 15,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>14,28; 24,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>12,6; 21,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,23; 10,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,68; 25,35</t>
+          <t>4,66; 8,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,06; 23,0</t>
+          <t>8,9; 14,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 14,33</t>
+          <t>7,53; 11,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 31,03</t>
+          <t>7,87; 12,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,72; 25,94</t>
+          <t>9,78; 14,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 12,34</t>
+          <t>8,62; 13,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,05; 24,84</t>
+          <t>6,9; 10,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 21,71</t>
+          <t>10,26; 13,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 10,69</t>
+          <t>8,67; 12,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,27 +852,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,95; 12,78</t>
+          <t>6,82; 15,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 14,52</t>
+          <t>8,99; 17,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,42</t>
+          <t>7,52; 16,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,95</t>
+          <t>5,39; 12,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 14,51</t>
+          <t>8,07; 16,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 12,11</t>
+          <t>6,41; 14,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,19</t>
+          <t>7,08; 12,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 13,59</t>
+          <t>9,71; 15,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 12,11</t>
+          <t>7,73; 13,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -1015,172 +1015,61 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,5</t>
+          <t>7,62; 11,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 16,68</t>
+          <t>10,85; 15,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 13,65</t>
+          <t>7,76; 11,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 14,93</t>
+          <t>8,74; 12,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,35; 17,9</t>
+          <t>10,49; 14,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 15,85</t>
+          <t>8,32; 12,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,95</t>
+          <t>8,74; 11,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,98</t>
+          <t>10,87; 14,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,45</t>
+          <t>8,7; 11,34</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,62%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,33%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,19%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,78%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>8,88; 13,01</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>10,32; 14,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8,49; 12,22</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,67; 11,49</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>10,65; 15,12</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>7,96; 11,59</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>8,68; 11,46</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>11,05; 14,14</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>8,59; 11,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
